--- a/examples/outputs/debug_check_lmsg2/20260107_060126/results.xlsx
+++ b/examples/outputs/debug_check_lmsg2/20260107_060126/results.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G523"/>
+  <dimension ref="A1:G442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13371,2355 +13371,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D443" t="n">
-        <v>0</v>
-      </c>
-      <c r="E443" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="F443" t="n">
-        <v>8</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D444" t="n">
-        <v>1</v>
-      </c>
-      <c r="E444" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F444" t="n">
-        <v>8</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D445" t="n">
-        <v>2</v>
-      </c>
-      <c r="E445" t="n">
-        <v>5.105345113209789</v>
-      </c>
-      <c r="F445" t="n">
-        <v>8.131758428875738</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D446" t="n">
-        <v>3</v>
-      </c>
-      <c r="E446" t="n">
-        <v>5.804689731760138</v>
-      </c>
-      <c r="F446" t="n">
-        <v>8.512605294330825</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.6648933402869011</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D447" t="n">
-        <v>4</v>
-      </c>
-      <c r="E447" t="n">
-        <v>6.504034350310488</v>
-      </c>
-      <c r="F447" t="n">
-        <v>8.893452159785912</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D448" t="n">
-        <v>5</v>
-      </c>
-      <c r="E448" t="n">
-        <v>7.203378968860838</v>
-      </c>
-      <c r="F448" t="n">
-        <v>9.274299025241</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.6648933402869011</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D449" t="n">
-        <v>6</v>
-      </c>
-      <c r="E449" t="n">
-        <v>7.902723587411187</v>
-      </c>
-      <c r="F449" t="n">
-        <v>9.655145890696087</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D450" t="n">
-        <v>7</v>
-      </c>
-      <c r="E450" t="n">
-        <v>8.688068700620976</v>
-      </c>
-      <c r="F450" t="n">
-        <v>9.786904319571825</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D451" t="n">
-        <v>8</v>
-      </c>
-      <c r="E451" t="n">
-        <v>9.488068700620977</v>
-      </c>
-      <c r="F451" t="n">
-        <v>9.786904319571825</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D452" t="n">
-        <v>9</v>
-      </c>
-      <c r="E452" t="n">
-        <v>10.28806870062098</v>
-      </c>
-      <c r="F452" t="n">
-        <v>9.786904319571825</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D453" t="n">
-        <v>10</v>
-      </c>
-      <c r="E453" t="n">
-        <v>11.07341381383076</v>
-      </c>
-      <c r="F453" t="n">
-        <v>9.918662748447563</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D454" t="n">
-        <v>11</v>
-      </c>
-      <c r="E454" t="n">
-        <v>11.82961116288769</v>
-      </c>
-      <c r="F454" t="n">
-        <v>10.17974811624759</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D455" t="n">
-        <v>12</v>
-      </c>
-      <c r="E455" t="n">
-        <v>12.58580851194462</v>
-      </c>
-      <c r="F455" t="n">
-        <v>10.44083348404761</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D456" t="n">
-        <v>13</v>
-      </c>
-      <c r="E456" t="n">
-        <v>13.34200586100155</v>
-      </c>
-      <c r="F456" t="n">
-        <v>10.70191885184764</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D457" t="n">
-        <v>14</v>
-      </c>
-      <c r="E457" t="n">
-        <v>14.12735097421134</v>
-      </c>
-      <c r="F457" t="n">
-        <v>10.83367728072337</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D458" t="n">
-        <v>15</v>
-      </c>
-      <c r="E458" t="n">
-        <v>14.91269608742112</v>
-      </c>
-      <c r="F458" t="n">
-        <v>10.96543570959911</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>16</v>
-      </c>
-      <c r="E459" t="n">
-        <v>15.66889343647805</v>
-      </c>
-      <c r="F459" t="n">
-        <v>11.22652107739914</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>17</v>
-      </c>
-      <c r="E460" t="n">
-        <v>16.42509078553498</v>
-      </c>
-      <c r="F460" t="n">
-        <v>11.48760644519916</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D461" t="n">
-        <v>18</v>
-      </c>
-      <c r="E461" t="n">
-        <v>17.18128813459191</v>
-      </c>
-      <c r="F461" t="n">
-        <v>11.74869181299919</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D462" t="n">
-        <v>19</v>
-      </c>
-      <c r="E462" t="n">
-        <v>17.93748548364884</v>
-      </c>
-      <c r="F462" t="n">
-        <v>12.00977718079921</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D463" t="n">
-        <v>20</v>
-      </c>
-      <c r="E463" t="n">
-        <v>18.69368283270577</v>
-      </c>
-      <c r="F463" t="n">
-        <v>12.27086254859924</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D464" t="n">
-        <v>21</v>
-      </c>
-      <c r="E464" t="n">
-        <v>19.47902794591556</v>
-      </c>
-      <c r="F464" t="n">
-        <v>12.40262097747497</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D465" t="n">
-        <v>22</v>
-      </c>
-      <c r="E465" t="n">
-        <v>20.27902794591556</v>
-      </c>
-      <c r="F465" t="n">
-        <v>12.40262097747497</v>
-      </c>
-      <c r="G465" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D466" t="n">
-        <v>23</v>
-      </c>
-      <c r="E466" t="n">
-        <v>21.07902794591556</v>
-      </c>
-      <c r="F466" t="n">
-        <v>12.40262097747497</v>
-      </c>
-      <c r="G466" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D467" t="n">
-        <v>24</v>
-      </c>
-      <c r="E467" t="n">
-        <v>21.87902794591556</v>
-      </c>
-      <c r="F467" t="n">
-        <v>12.40262097747497</v>
-      </c>
-      <c r="G467" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D468" t="n">
-        <v>25</v>
-      </c>
-      <c r="E468" t="n">
-        <v>22.66437305912535</v>
-      </c>
-      <c r="F468" t="n">
-        <v>12.53437940635071</v>
-      </c>
-      <c r="G468" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D469" t="n">
-        <v>26</v>
-      </c>
-      <c r="E469" t="n">
-        <v>23.42057040818228</v>
-      </c>
-      <c r="F469" t="n">
-        <v>12.79546477415074</v>
-      </c>
-      <c r="G469" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D470" t="n">
-        <v>27</v>
-      </c>
-      <c r="E470" t="n">
-        <v>24.17676775723921</v>
-      </c>
-      <c r="F470" t="n">
-        <v>13.05655014195076</v>
-      </c>
-      <c r="G470" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D471" t="n">
-        <v>28</v>
-      </c>
-      <c r="E471" t="n">
-        <v>24.93296510629614</v>
-      </c>
-      <c r="F471" t="n">
-        <v>13.31763550975079</v>
-      </c>
-      <c r="G471" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D472" t="n">
-        <v>29</v>
-      </c>
-      <c r="E472" t="n">
-        <v>25.63230972484649</v>
-      </c>
-      <c r="F472" t="n">
-        <v>13.69848237520587</v>
-      </c>
-      <c r="G472" t="n">
-        <v>0.6648933402869011</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D473" t="n">
-        <v>30</v>
-      </c>
-      <c r="E473" t="n">
-        <v>26.2618958016483</v>
-      </c>
-      <c r="F473" t="n">
-        <v>14.1920625327257</v>
-      </c>
-      <c r="G473" t="n">
-        <v>0.6648933402869011</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D474" t="n">
-        <v>31</v>
-      </c>
-      <c r="E474" t="n">
-        <v>26.96124042019865</v>
-      </c>
-      <c r="F474" t="n">
-        <v>14.57290939818079</v>
-      </c>
-      <c r="G474" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D475" t="n">
-        <v>32</v>
-      </c>
-      <c r="E475" t="n">
-        <v>27.71743776925558</v>
-      </c>
-      <c r="F475" t="n">
-        <v>14.83399476598082</v>
-      </c>
-      <c r="G475" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D476" t="n">
-        <v>33</v>
-      </c>
-      <c r="E476" t="n">
-        <v>28.47363511831251</v>
-      </c>
-      <c r="F476" t="n">
-        <v>15.09508013378084</v>
-      </c>
-      <c r="G476" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D477" t="n">
-        <v>34</v>
-      </c>
-      <c r="E477" t="n">
-        <v>29.22983246736944</v>
-      </c>
-      <c r="F477" t="n">
-        <v>15.35616550158086</v>
-      </c>
-      <c r="G477" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D478" t="n">
-        <v>35</v>
-      </c>
-      <c r="E478" t="n">
-        <v>29.98602981642637</v>
-      </c>
-      <c r="F478" t="n">
-        <v>15.61725086938089</v>
-      </c>
-      <c r="G478" t="n">
-        <v>0.3324466701434505</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D479" t="n">
-        <v>36</v>
-      </c>
-      <c r="E479" t="n">
-        <v>30.59171320445215</v>
-      </c>
-      <c r="F479" t="n">
-        <v>16.11402597000842</v>
-      </c>
-      <c r="G479" t="n">
-        <v>1.041415121047385</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D480" t="n">
-        <v>37</v>
-      </c>
-      <c r="E480" t="n">
-        <v>30.99571267996953</v>
-      </c>
-      <c r="F480" t="n">
-        <v>16.80452175115533</v>
-      </c>
-      <c r="G480" t="n">
-        <v>1.041415121047385</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D481" t="n">
-        <v>38</v>
-      </c>
-      <c r="E481" t="n">
-        <v>31.39971215548691</v>
-      </c>
-      <c r="F481" t="n">
-        <v>17.49501753230225</v>
-      </c>
-      <c r="G481" t="n">
-        <v>1.041415121047385</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D482" t="n">
-        <v>39</v>
-      </c>
-      <c r="E482" t="n">
-        <v>31.80371163100429</v>
-      </c>
-      <c r="F482" t="n">
-        <v>18.18551331344916</v>
-      </c>
-      <c r="G482" t="n">
-        <v>1.041415121047385</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D483" t="n">
-        <v>40</v>
-      </c>
-      <c r="E483" t="n">
-        <v>32.20771110652167</v>
-      </c>
-      <c r="F483" t="n">
-        <v>18.87600909459607</v>
-      </c>
-      <c r="G483" t="n">
-        <v>1.041415121047385</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D484" t="n">
-        <v>41</v>
-      </c>
-      <c r="E484" t="n">
-        <v>32.61171058203905</v>
-      </c>
-      <c r="F484" t="n">
-        <v>19.56650487574298</v>
-      </c>
-      <c r="G484" t="n">
-        <v>1.041415121047385</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D485" t="n">
-        <v>42</v>
-      </c>
-      <c r="E485" t="n">
-        <v>33.12203264842172</v>
-      </c>
-      <c r="F485" t="n">
-        <v>20.17781381481161</v>
-      </c>
-      <c r="G485" t="n">
-        <v>0.7089684509039347</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D486" t="n">
-        <v>43</v>
-      </c>
-      <c r="E486" t="n">
-        <v>33.80391766462173</v>
-      </c>
-      <c r="F486" t="n">
-        <v>20.58910453328726</v>
-      </c>
-      <c r="G486" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D487" t="n">
-        <v>44</v>
-      </c>
-      <c r="E487" t="n">
-        <v>34.54787699117954</v>
-      </c>
-      <c r="F487" t="n">
-        <v>20.88325503970812</v>
-      </c>
-      <c r="G487" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D488" t="n">
-        <v>45</v>
-      </c>
-      <c r="E488" t="n">
-        <v>35.29183631773734</v>
-      </c>
-      <c r="F488" t="n">
-        <v>21.17740554612899</v>
-      </c>
-      <c r="G488" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D489" t="n">
-        <v>46</v>
-      </c>
-      <c r="E489" t="n">
-        <v>35.97372133393735</v>
-      </c>
-      <c r="F489" t="n">
-        <v>21.58869626460464</v>
-      </c>
-      <c r="G489" t="n">
-        <v>0.7089684509039347</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D490" t="n">
-        <v>47</v>
-      </c>
-      <c r="E490" t="n">
-        <v>36.65560635013735</v>
-      </c>
-      <c r="F490" t="n">
-        <v>21.99998698308028</v>
-      </c>
-      <c r="G490" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D491" t="n">
-        <v>48</v>
-      </c>
-      <c r="E491" t="n">
-        <v>37.39956567669516</v>
-      </c>
-      <c r="F491" t="n">
-        <v>22.29413748950115</v>
-      </c>
-      <c r="G491" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D492" t="n">
-        <v>49</v>
-      </c>
-      <c r="E492" t="n">
-        <v>38.14352500325297</v>
-      </c>
-      <c r="F492" t="n">
-        <v>22.58828799592201</v>
-      </c>
-      <c r="G492" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D493" t="n">
-        <v>50</v>
-      </c>
-      <c r="E493" t="n">
-        <v>38.88748432981077</v>
-      </c>
-      <c r="F493" t="n">
-        <v>22.88243850234287</v>
-      </c>
-      <c r="G493" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D494" t="n">
-        <v>51</v>
-      </c>
-      <c r="E494" t="n">
-        <v>39.63144365636858</v>
-      </c>
-      <c r="F494" t="n">
-        <v>23.17658900876373</v>
-      </c>
-      <c r="G494" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D495" t="n">
-        <v>52</v>
-      </c>
-      <c r="E495" t="n">
-        <v>40.31332867256859</v>
-      </c>
-      <c r="F495" t="n">
-        <v>23.58787972723938</v>
-      </c>
-      <c r="G495" t="n">
-        <v>0.7089684509039347</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D496" t="n">
-        <v>53</v>
-      </c>
-      <c r="E496" t="n">
-        <v>40.92055576930826</v>
-      </c>
-      <c r="F496" t="n">
-        <v>24.10872063671665</v>
-      </c>
-      <c r="G496" t="n">
-        <v>0.7089684509039347</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D497" t="n">
-        <v>54</v>
-      </c>
-      <c r="E497" t="n">
-        <v>41.60244078550826</v>
-      </c>
-      <c r="F497" t="n">
-        <v>24.5200113551923</v>
-      </c>
-      <c r="G497" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D498" t="n">
-        <v>55</v>
-      </c>
-      <c r="E498" t="n">
-        <v>42.34640011206607</v>
-      </c>
-      <c r="F498" t="n">
-        <v>24.81416186161316</v>
-      </c>
-      <c r="G498" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D499" t="n">
-        <v>56</v>
-      </c>
-      <c r="E499" t="n">
-        <v>43.09035943862388</v>
-      </c>
-      <c r="F499" t="n">
-        <v>25.10831236803402</v>
-      </c>
-      <c r="G499" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D500" t="n">
-        <v>57</v>
-      </c>
-      <c r="E500" t="n">
-        <v>43.86913647627142</v>
-      </c>
-      <c r="F500" t="n">
-        <v>25.2745458064729</v>
-      </c>
-      <c r="G500" t="n">
-        <v>0.04407511061703362</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D501" t="n">
-        <v>58</v>
-      </c>
-      <c r="E501" t="n">
-        <v>44.66835955590473</v>
-      </c>
-      <c r="F501" t="n">
-        <v>25.30979447994366</v>
-      </c>
-      <c r="G501" t="n">
-        <v>0.04407511061703362</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D502" t="n">
-        <v>59</v>
-      </c>
-      <c r="E502" t="n">
-        <v>45.46758263553804</v>
-      </c>
-      <c r="F502" t="n">
-        <v>25.34504315341442</v>
-      </c>
-      <c r="G502" t="n">
-        <v>0.04407511061703362</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D503" t="n">
-        <v>60</v>
-      </c>
-      <c r="E503" t="n">
-        <v>46.26680571517134</v>
-      </c>
-      <c r="F503" t="n">
-        <v>25.38029182688517</v>
-      </c>
-      <c r="G503" t="n">
-        <v>0.04407511061703362</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D504" t="n">
-        <v>61</v>
-      </c>
-      <c r="E504" t="n">
-        <v>47.06602879480465</v>
-      </c>
-      <c r="F504" t="n">
-        <v>25.41554050035593</v>
-      </c>
-      <c r="G504" t="n">
-        <v>0.04407511061703362</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D505" t="n">
-        <v>62</v>
-      </c>
-      <c r="E505" t="n">
-        <v>47.8448058324522</v>
-      </c>
-      <c r="F505" t="n">
-        <v>25.58177393879481</v>
-      </c>
-      <c r="G505" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D506" t="n">
-        <v>63</v>
-      </c>
-      <c r="E506" t="n">
-        <v>48.58876515901</v>
-      </c>
-      <c r="F506" t="n">
-        <v>25.87592444521567</v>
-      </c>
-      <c r="G506" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D507" t="n">
-        <v>64</v>
-      </c>
-      <c r="E507" t="n">
-        <v>49.33272448556781</v>
-      </c>
-      <c r="F507" t="n">
-        <v>26.17007495163653</v>
-      </c>
-      <c r="G507" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D508" t="n">
-        <v>65</v>
-      </c>
-      <c r="E508" t="n">
-        <v>50.07668381212562</v>
-      </c>
-      <c r="F508" t="n">
-        <v>26.4642254580574</v>
-      </c>
-      <c r="G508" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D509" t="n">
-        <v>66</v>
-      </c>
-      <c r="E509" t="n">
-        <v>50.82064313868342</v>
-      </c>
-      <c r="F509" t="n">
-        <v>26.75837596447826</v>
-      </c>
-      <c r="G509" t="n">
-        <v>0.3765217807604841</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D510" t="n">
-        <v>67</v>
-      </c>
-      <c r="E510" t="n">
-        <v>51.40384998787128</v>
-      </c>
-      <c r="F510" t="n">
-        <v>27.28135554170309</v>
-      </c>
-      <c r="G510" t="n">
-        <v>1.085490231664419</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D511" t="n">
-        <v>68</v>
-      </c>
-      <c r="E511" t="n">
-        <v>51.7770332937096</v>
-      </c>
-      <c r="F511" t="n">
-        <v>27.98898130454923</v>
-      </c>
-      <c r="G511" t="n">
-        <v>1.085490231664419</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D512" t="n">
-        <v>69</v>
-      </c>
-      <c r="E512" t="n">
-        <v>52.15021659954792</v>
-      </c>
-      <c r="F512" t="n">
-        <v>28.69660706739537</v>
-      </c>
-      <c r="G512" t="n">
-        <v>1.085490231664419</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D513" t="n">
-        <v>70</v>
-      </c>
-      <c r="E513" t="n">
-        <v>52.52339990538625</v>
-      </c>
-      <c r="F513" t="n">
-        <v>29.40423283024151</v>
-      </c>
-      <c r="G513" t="n">
-        <v>1.085490231664419</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D514" t="n">
-        <v>71</v>
-      </c>
-      <c r="E514" t="n">
-        <v>53.0062915857815</v>
-      </c>
-      <c r="F514" t="n">
-        <v>30.03743331620732</v>
-      </c>
-      <c r="G514" t="n">
-        <v>0.7530435615209687</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D515" t="n">
-        <v>72</v>
-      </c>
-      <c r="E515" t="n">
-        <v>53.6693925737391</v>
-      </c>
-      <c r="F515" t="n">
-        <v>30.478369037364</v>
-      </c>
-      <c r="G515" t="n">
-        <v>0.4205968913775182</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D516" t="n">
-        <v>73</v>
-      </c>
-      <c r="E516" t="n">
-        <v>54.44008891647026</v>
-      </c>
-      <c r="F516" t="n">
-        <v>30.67875461000614</v>
-      </c>
-      <c r="G516" t="n">
-        <v>0.08815022123406768</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D517" t="n">
-        <v>74</v>
-      </c>
-      <c r="E517" t="n">
-        <v>55.23698274401664</v>
-      </c>
-      <c r="F517" t="n">
-        <v>30.74918349341685</v>
-      </c>
-      <c r="G517" t="n">
-        <v>0.08815022123406768</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D518" t="n">
-        <v>75</v>
-      </c>
-      <c r="E518" t="n">
-        <v>56.03387657156301</v>
-      </c>
-      <c r="F518" t="n">
-        <v>30.81961237682757</v>
-      </c>
-      <c r="G518" t="n">
-        <v>0.08815022123406768</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D519" t="n">
-        <v>76</v>
-      </c>
-      <c r="E519" t="n">
-        <v>56.74173269170441</v>
-      </c>
-      <c r="F519" t="n">
-        <v>31.15513820342257</v>
-      </c>
-      <c r="G519" t="n">
-        <v>0.7971186721380024</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D520" t="n">
-        <v>77</v>
-      </c>
-      <c r="E520" t="n">
-        <v>57.38476170976281</v>
-      </c>
-      <c r="F520" t="n">
-        <v>31.62486249740486</v>
-      </c>
-      <c r="G520" t="n">
-        <v>0.4646720019945518</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D521" t="n">
-        <v>78</v>
-      </c>
-      <c r="E521" t="n">
-        <v>58.09993658920976</v>
-      </c>
-      <c r="F521" t="n">
-        <v>31.98336618191596</v>
-      </c>
-      <c r="G521" t="n">
-        <v>0.4646720019945518</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D522" t="n">
-        <v>79</v>
-      </c>
-      <c r="E522" t="n">
-        <v>58.86105531281152</v>
-      </c>
-      <c r="F522" t="n">
-        <v>32.21751467967992</v>
-      </c>
-      <c r="G522" t="n">
-        <v>0.1322253318511013</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>large_map_small_gap</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>D-Hybrid A*</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D523" t="n">
-        <v>80</v>
-      </c>
-      <c r="E523" t="n">
-        <v>58.88</v>
-      </c>
-      <c r="F523" t="n">
-        <v>32</v>
-      </c>
-      <c r="G523" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
